--- a/Data/062018/nangsuat.xlsx
+++ b/Data/062018/nangsuat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\html\live\luong.diepxuan.vn\Data\062018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DucTn\Desktop\luong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4A689D37-2F3C-4D6B-A43D-F8D359762404}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F60707F0-67C8-4CAA-A5B9-39AC10AC40DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -456,14 +456,14 @@
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
@@ -527,31 +527,48 @@
       <c r="A2" s="4">
         <v>43252</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>13700</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="L2" s="5"/>
+      <c r="J2" s="6">
+        <v>20650</v>
+      </c>
+      <c r="L2" s="5">
+        <f>1040</f>
+        <v>1040</v>
+      </c>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>43253</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="5">
+        <v>41660</v>
+      </c>
+      <c r="C3" s="5">
+        <f>650+750</f>
+        <v>1400</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="5">
+        <v>25020</v>
+      </c>
+      <c r="G3" s="6">
+        <v>600</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="6">
+        <v>6410</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="5"/>
       <c r="N3" s="5"/>
@@ -560,15 +577,24 @@
       <c r="A4" s="4">
         <v>43254</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5">
+        <v>22250</v>
+      </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <f>600</f>
+        <v>600</v>
+      </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <v>16370</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6">
+        <v>21805</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="N4" s="5"/>
     </row>
@@ -576,15 +602,27 @@
       <c r="A5" s="4">
         <v>43255</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5">
+        <v>48350</v>
+      </c>
+      <c r="C5" s="5">
+        <f>1200+2670+2775+3620+3120</f>
+        <v>13385</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5">
+        <v>20340</v>
+      </c>
+      <c r="G5" s="5">
+        <f>600</f>
+        <v>600</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="6">
+        <v>8510</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="N5" s="5"/>
     </row>
@@ -592,15 +630,31 @@
       <c r="A6" s="4">
         <v>43256</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>10470</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <f>1200</f>
+        <v>1200</v>
+      </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5">
+        <v>11220</v>
+      </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <f>600</f>
+        <v>600</v>
+      </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6">
+        <v>4050</v>
+      </c>
+      <c r="K6">
+        <f>100+500</f>
+        <v>600</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="N6" s="5"/>
     </row>
@@ -608,15 +662,24 @@
       <c r="A7" s="4">
         <v>43257</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5">
+        <v>10100</v>
+      </c>
+      <c r="C7" s="5">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>31860</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6">
+        <v>13540</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="N7" s="5"/>
     </row>
@@ -624,15 +687,24 @@
       <c r="A8" s="4">
         <v>43258</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>9615</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5">
+        <v>9280</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6">
+        <v>12145</v>
+      </c>
+      <c r="K8">
+        <v>760</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="N8" s="5"/>
     </row>
@@ -640,15 +712,26 @@
       <c r="A9" s="4">
         <v>43259</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>23440</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>4370</v>
+      </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>14400</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6">
+        <v>1220</v>
+      </c>
+      <c r="K9">
+        <v>650</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="N9" s="5"/>
     </row>
@@ -656,12 +739,18 @@
       <c r="A10" s="4">
         <v>43260</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>20220</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="5">
+        <v>20400</v>
+      </c>
+      <c r="G10" s="5">
+        <v>835</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
@@ -672,12 +761,18 @@
       <c r="A11" s="4">
         <v>43261</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <v>20350</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="5">
+        <v>13120</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7990</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
@@ -688,15 +783,28 @@
       <c r="A12" s="4">
         <v>43262</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="5">
+        <v>11400</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1000</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="5">
+        <v>12660</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4880</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6">
+        <v>10830</v>
+      </c>
+      <c r="K12">
+        <v>1880</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="N12" s="5"/>
     </row>
@@ -720,15 +828,21 @@
       <c r="A14" s="4">
         <v>43264</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5">
+        <v>7150</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <v>9080</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6">
+        <v>740</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="N14" s="5"/>
     </row>
@@ -736,31 +850,50 @@
       <c r="A15" s="4">
         <v>43265</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="5">
+        <v>12630</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1550</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5">
+        <v>7100</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="L15" s="5"/>
+      <c r="J15" s="6">
+        <v>45685</v>
+      </c>
+      <c r="L15" s="5">
+        <v>21400</v>
+      </c>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>43266</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5">
+        <v>12085</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5">
+        <v>19850</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6">
+        <v>14230</v>
+      </c>
+      <c r="K16">
+        <v>1105</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="N16" s="5"/>
     </row>
@@ -768,32 +901,57 @@
       <c r="A17" s="4">
         <v>43267</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5">
+        <v>34000</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <v>2800</v>
+      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="5">
+        <v>14200</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2040</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="L17" s="5"/>
+      <c r="J17" s="6">
+        <v>13370</v>
+      </c>
+      <c r="K17" s="6">
+        <v>186</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1640</v>
+      </c>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>43268</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="5">
+        <v>27745</v>
+      </c>
+      <c r="C18" s="5">
+        <v>240</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5">
+        <v>12500</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="L18" s="5"/>
+      <c r="J18" s="6">
+        <v>11134</v>
+      </c>
+      <c r="L18" s="5">
+        <v>186</v>
+      </c>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -816,15 +974,23 @@
       <c r="A20" s="4">
         <v>43270</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="5">
+        <v>13050</v>
+      </c>
+      <c r="C20" s="5">
+        <v>100</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5">
+        <v>12300</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6">
+        <v>6695</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="N20" s="5"/>
     </row>
@@ -832,15 +998,24 @@
       <c r="A21" s="4">
         <v>43271</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5">
+        <v>28315</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5">
+        <v>10850</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6">
+        <v>9250</v>
+      </c>
+      <c r="K21">
+        <v>450</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="N21" s="5"/>
     </row>
@@ -848,15 +1023,24 @@
       <c r="A22" s="4">
         <v>43272</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5">
+        <v>11335</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5">
+        <v>7460</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6">
+        <v>12750</v>
+      </c>
+      <c r="K22">
+        <v>1920</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="N22" s="5"/>
     </row>
@@ -864,15 +1048,21 @@
       <c r="A23" s="4">
         <v>43273</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5">
+        <v>15505</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5">
+        <v>19800</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6">
+        <v>8630</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="N23" s="5"/>
     </row>
@@ -880,15 +1070,21 @@
       <c r="A24" s="4">
         <v>43274</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="5">
+        <v>5935</v>
+      </c>
+      <c r="C24" s="5">
+        <v>320</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="6">
+        <v>3700</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="N24" s="5"/>
     </row>
@@ -896,7 +1092,9 @@
       <c r="A25" s="4">
         <v>43275</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5">
+        <v>15590</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -904,7 +1102,9 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="6">
+        <v>8460</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="N25" s="5"/>
     </row>
@@ -912,15 +1112,21 @@
       <c r="A26" s="4">
         <v>43276</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5">
+        <v>11940</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5">
+        <v>26290</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="6">
+        <v>15440</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="N26" s="5"/>
     </row>
@@ -928,11 +1134,17 @@
       <c r="A27" s="4">
         <v>43277</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="5">
+        <v>19720</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5820</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5">
+        <v>13170</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -944,29 +1156,47 @@
       <c r="A28" s="4">
         <v>43278</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="5">
+        <v>26660</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3160</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5">
+        <v>18890</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="L28" s="5"/>
+      <c r="J28" s="6">
+        <v>13800</v>
+      </c>
+      <c r="L28" s="5">
+        <v>320</v>
+      </c>
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>43279</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="5">
+        <v>9850</v>
+      </c>
+      <c r="D29" s="5">
+        <v>100</v>
+      </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5">
+        <v>15920</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="6">
+        <v>12840</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="N29" s="5"/>
     </row>
@@ -978,12 +1208,18 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="5">
+        <v>19000</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="5"/>
+      <c r="J30" s="6">
+        <v>46300</v>
+      </c>
+      <c r="K30" s="5">
+        <v>13900</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="N30" s="5"/>
     </row>
@@ -991,11 +1227,20 @@
       <c r="A31" s="4">
         <v>43281</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="5">
+        <f>21800+4220</f>
+        <v>26020</v>
+      </c>
+      <c r="C31" s="5">
+        <v>5200</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1755</v>
+      </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5">
+        <v>14210</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
